--- a/metrics/R2/Edema macular diabético.xlsx
+++ b/metrics/R2/Edema macular diabético.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9980936938662384</v>
+        <v>0.9980451000868555</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9980511792406667</v>
+        <v>0.9980434172991038</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9980995057115789</v>
+        <v>0.9979834470579608</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9985130119701572</v>
+        <v>0.9985121626414682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9985120261205696</v>
+        <v>0.9985120581352344</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9985128984178354</v>
+        <v>0.9985122635058566</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.990512354945748</v>
+        <v>0.990471956483862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9907605107975614</v>
+        <v>0.9907122554959255</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9911810559861134</v>
+        <v>0.9907612208411306</v>
       </c>
     </row>
   </sheetData>
